--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A3:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>倒计时结束后对前方90°扇形AOE，秒杀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>每隔一段时间释放全屏AOE”怒吼”，对小红帽附加恐惧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -81,6 +77,66 @@
   </si>
   <si>
     <t>塔判定完后生成八方向的荆棘，带止步、流血效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒计时结束后对最近的一名玩家90°扇形AOE，90%血伤害，解除大灰狼debuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红帽x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月圆之时：boss全屏大伤害AOE，狼与小红帽debuff全部转为狼人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃掉小红帽后：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带血的狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月圆之时后：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人击杀吃掉小红帽的狼后复活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被“吃掉“后玩家死亡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同左</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月圆之时前狼吃掉小红帽，场上剩两只狼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后猎人杀掉两只狼，救活小红帽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时再召唤两只狼，释放直线突进</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +172,15 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -148,10 +213,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -159,6 +225,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFED9B4"/>
+      <color rgb="FFF9BBB9"/>
+      <color rgb="FFEFB59B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -168,6 +241,542 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="4067175"/>
+          <a:ext cx="3305175" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429376" y="3990975"/>
+          <a:ext cx="800100" cy="3686175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFB59B">
+            <a:alpha val="38039"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628156</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108164</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80729</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2615799">
+          <a:off x="6943231" y="2990481"/>
+          <a:ext cx="851608" cy="4291148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFB59B">
+            <a:alpha val="38039"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170584</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7260438" y="3545813"/>
+          <a:ext cx="851608" cy="4456834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFB59B">
+            <a:alpha val="38039"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327611</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>62052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>503959</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>56410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7982865">
+          <a:off x="6990856" y="4171582"/>
+          <a:ext cx="851608" cy="4291148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFB59B">
+            <a:alpha val="38039"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242890</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="五边形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8858252" y="4543425"/>
+          <a:ext cx="523875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>642940</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319090</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="五边形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="8934452" y="6419850"/>
+          <a:ext cx="523875" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>   </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="椭圆 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134351" y="3800476"/>
+          <a:ext cx="1943100" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FED9B4">
+            <a:alpha val="47451"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="椭圆 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229601" y="5648326"/>
+          <a:ext cx="1943100" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FED9B4">
+            <a:alpha val="47451"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A3:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,7 +1077,7 @@
     <col min="3" max="3" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,12 +1086,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -490,33 +1099,81 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -524,32 +1181,39 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>月圆之时：boss全屏大伤害AOE，狼与小红帽debuff全部转为狼人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>吃掉小红帽后：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,7 +132,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同时再召唤两只狼，释放直线突进</t>
+    <t>远线、近线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远线拉断突进，近线靠近怒吼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满月之时：boss全屏大伤害AOE，狼与小红帽debuff全部转为狼人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新月之时：同时再召唤两只狼（不可视），释放直线突进（可以阻挡保护小红帽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼突进不受荆棘阻挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家 分散到四个区域来挡突进（接线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火流星：范围覆盖到荆棘时会烧掉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤独感进度条：靠近小红帽降低，远离增加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +219,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -213,11 +243,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -307,16 +338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -325,7 +356,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6429376" y="3990975"/>
+          <a:off x="12820651" y="3381375"/>
           <a:ext cx="800100" cy="3686175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -368,15 +399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>628156</xdr:colOff>
+      <xdr:colOff>409079</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>75831</xdr:rowOff>
+      <xdr:rowOff>56779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>108164</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>574887</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>80729</xdr:rowOff>
+      <xdr:rowOff>61677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -385,8 +416,68 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="2615799">
-          <a:off x="6943231" y="2990481"/>
+          <a:off x="6724154" y="2971429"/>
           <a:ext cx="851608" cy="4291148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="EFB59B">
+            <a:alpha val="38039"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561109</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123084</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11765763" y="2955263"/>
+          <a:ext cx="851608" cy="4456834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -428,75 +519,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33476</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>170584</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>27834</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7260438" y="3545813"/>
-          <a:ext cx="851608" cy="4456834"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EFB59B">
-            <a:alpha val="38039"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327611</xdr:colOff>
+      <xdr:colOff>108534</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>62052</xdr:rowOff>
+      <xdr:rowOff>43000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>503959</xdr:colOff>
+      <xdr:colOff>284882</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>56410</xdr:rowOff>
+      <xdr:rowOff>37358</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -505,7 +536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="7982865">
-          <a:off x="6990856" y="4171582"/>
+          <a:off x="6771779" y="4152530"/>
           <a:ext cx="851608" cy="4291148"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -532,237 +563,6 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>566740</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>242890</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="五边形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8858252" y="4543425"/>
-          <a:ext cx="523875" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>642940</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>319090</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="五边形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8934452" y="6419850"/>
-          <a:ext cx="523875" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>   </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="椭圆 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8134351" y="3800476"/>
-          <a:ext cx="1943100" cy="1943100"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FED9B4">
-            <a:alpha val="47451"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="椭圆 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8229601" y="5648326"/>
-          <a:ext cx="1943100" cy="1943100"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FED9B4">
-            <a:alpha val="47451"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1066,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R23"/>
+  <dimension ref="A3:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,10 +905,10 @@
         <v>17</v>
       </c>
       <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
         <v>21</v>
-      </c>
-      <c r="R7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -1116,42 +916,53 @@
         <v>14</v>
       </c>
       <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
         <v>23</v>
       </c>
-      <c r="R8" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E11" s="2" t="s">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
         <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F13" s="3" t="s">
-        <v>20</v>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
         <v>23</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -1161,16 +972,16 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="H15" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="O15" t="s">
         <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
@@ -1184,7 +995,7 @@
         <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
@@ -1192,7 +1003,7 @@
         <v>10</v>
       </c>
       <c r="O19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
@@ -1208,6 +1019,21 @@
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,166 +14,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>小红帽剧场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>debuff赋予玩家“角色“</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小红帽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>两个dps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>一个h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>猎人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>其余玩家中随机一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每隔一段时间释放全屏AOE”怒吼”，对小红帽附加恐惧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接近小红帽会将其吃掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>aoe击杀狼后可解救小红帽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>荆棘塔与小屋核爆点名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>故意让小红帽被吃掉来躲掉某个机制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>之后再把小红帽救出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最后连线小红帽对其方向释放直线冲锋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>塔判定完后生成八方向的荆棘，带止步、流血效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>倒计时结束后对最近的一名玩家90°扇形AOE，90%血伤害，解除大灰狼debuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狼x2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>小红帽x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>猎人x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>吃掉小红帽后：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>带血的狼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>月圆之时后：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狼人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>猎人击杀吃掉小红帽的狼后复活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>被“吃掉“后玩家死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>同左</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>月圆之时前狼吃掉小红帽，场上剩两只狼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>之后猎人杀掉两只狼，救活小红帽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>远线、近线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>远线拉断突进，近线靠近怒吼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>满月之时：boss全屏大伤害AOE，狼与小红帽debuff全部转为狼人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>新月之时：同时再召唤两只狼（不可视），释放直线突进（可以阻挡保护小红帽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>狼突进不受荆棘阻挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>玩家 分散到四个区域来挡突进（接线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>火流星：范围覆盖到荆棘时会烧掉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>孤独感进度条：靠近小红帽降低，远离增加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">剧场 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- マッチ売りの少女</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>デバフ：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチ売りの少女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>マッチ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女役のプレイヤーに近づくと灯る</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>近线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏aoe + dot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每点燃一根火柴触发一些机制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随时间减少</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到0死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃火柴时恢复一定值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个玩家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,16 +316,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -866,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R29"/>
+  <dimension ref="A3:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1036,8 +1114,72 @@
         <v>35</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,154 +14,154 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>小红帽剧场</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>debuff赋予玩家“角色“</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小红帽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>狼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>两个dps</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一个h</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>猎人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其余玩家中随机一个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每隔一段时间释放全屏AOE”怒吼”，对小红帽附加恐惧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接近小红帽会将其吃掉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>aoe击杀狼后可解救小红帽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>荆棘塔与小屋核爆点名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>故意让小红帽被吃掉来躲掉某个机制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>之后再把小红帽救出来</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>最后连线小红帽对其方向释放直线冲锋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>塔判定完后生成八方向的荆棘，带止步、流血效果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>倒计时结束后对最近的一名玩家90°扇形AOE，90%血伤害，解除大灰狼debuff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>狼x2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小红帽x1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>猎人x1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>吃掉小红帽后：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>带血的狼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>月圆之时后：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>狼人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>猎人击杀吃掉小红帽的狼后复活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>被“吃掉“后玩家死亡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>同左</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>月圆之时前狼吃掉小红帽，场上剩两只狼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>之后猎人杀掉两只狼，救活小红帽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>远线、近线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>远线拉断突进，近线靠近怒吼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>满月之时：boss全屏大伤害AOE，狼与小红帽debuff全部转为狼人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新月之时：同时再召唤两只狼（不可视），释放直线突进（可以阻挡保护小红帽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>狼突进不受荆棘阻挡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>玩家 分散到四个区域来挡突进（接线）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>火流星：范围覆盖到荆棘时会烧掉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>孤独感进度条：靠近小红帽降低，远离增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -178,71 +178,83 @@
       </rPr>
       <t>- マッチ売りの少女</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>デバフ：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>マッチ売りの少女</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>マッチ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>少女役のプレイヤーに近づくと灯る</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>近线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>全屏aoe + dot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每点燃一根火柴触发一些机制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>温暖值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>随时间减少</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>到0死亡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>点燃火柴时恢复一定值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3个玩家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1个H</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原作剧情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,17 +328,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -946,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,7 +1126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
@@ -1123,12 +1135,12 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>39</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -1147,12 +1159,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
         <v>40</v>
       </c>
@@ -1160,7 +1172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>42</v>
       </c>
@@ -1168,18 +1180,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D61" t="s">
         <v>44</v>
       </c>
+      <c r="G61" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>全屏aoe + dot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每点燃一根火柴触发一些机制</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -225,15 +221,132 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3个玩家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1个H</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>原作剧情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖值上限100，每3s减少10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原作</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖和的大火炉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴2</t>
+  </si>
+  <si>
+    <t>烤鹅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴3</t>
+  </si>
+  <si>
+    <t>圣诞树</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>画片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴4</t>
+  </si>
+  <si>
+    <t>把周围全照亮了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦着了一大把火柴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻死</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6s内点燃第一根</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖值回复100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴1：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴2：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>debuff倒计时结束不触发则团灭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘+30s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个玩家</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鹅的幻影，连线4人并向其移动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时全屏aoe+易伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触碰到玩家则造成小范围AOE并消失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触碰到小女孩则回复10温暖值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多共回复40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>’+12s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴3：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15s dot</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +409,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -332,13 +452,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -956,15 +1077,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R61"/>
+  <dimension ref="A3:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1126,7 +1248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>37</v>
       </c>
@@ -1135,62 +1257,174 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="J53" t="s">
+        <v>52</v>
+      </c>
+      <c r="K53" t="s">
+        <v>53</v>
+      </c>
+      <c r="L53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
         <v>45</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>46</v>
       </c>
-      <c r="F54" t="s">
+      <c r="K54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="K55" t="s">
+        <v>57</v>
+      </c>
+      <c r="L55" t="s">
+        <v>58</v>
+      </c>
+      <c r="M55" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+      <c r="L58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
         <v>42</v>
       </c>
       <c r="E59" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="L59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D61" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D61" t="s">
-        <v>44</v>
-      </c>
       <c r="G61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
         <v>51</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D76" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -322,14 +322,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>触发时全屏aoe+易伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>触碰到玩家则造成小范围AOE并消失</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>触碰到小女孩则回复10温暖值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -347,6 +339,29 @@
   </si>
   <si>
     <t>15s dot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴4：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制结束时温暖值大于一定值在梦幻paradise触发机制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏aoe+易伤</t>
+  </si>
+  <si>
+    <t>火柴玩家发出的视线，小女孩免疫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>触碰到任何玩家则造成小范围AOE并消失</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1077,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R78"/>
+  <dimension ref="A3:R87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1350,19 +1365,27 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="E60" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D63" t="s">
         <v>43</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G63" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D62" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D64" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1385,7 +1408,7 @@
         <v>68</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.15">
@@ -1406,25 +1429,43 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C82" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -342,14 +342,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>火柴4：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>机制结束时温暖值大于一定值在梦幻paradise触发机制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>触发时</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -362,6 +354,126 @@
   </si>
   <si>
     <t>触碰到任何玩家则造成小范围AOE并消失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>见PPT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴4：（梦幻paradise）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独触发时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏aoe，无dot，无易伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖值回复100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻paradise后半点名一个H小女孩debuff，初始温暖值20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场机制未达到条件：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场机制时若达到条件：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机5人被点名火柴4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机两人被点名火柴4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复10温暖值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共回复20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘+6s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩因温暖值不足死亡，团灭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5根火柴一个一个点共回复50温暖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>’+15s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘+30s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶的幻影存在且4根同时触发时，全体血量归一，获得hot</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在小女孩旁边出现奶奶的幻影（幻影无实际机制，持续到机制结束或小女孩死亡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有人会看向小女孩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>机制结束时温暖值大于一定值在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>梦幻paradise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>触发机制</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>撑过30s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>活20s才能处理机制</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -369,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +543,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +576,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,6 +615,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -1092,16 +1236,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R87"/>
+  <dimension ref="A3:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1365,15 +1512,18 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -1389,13 +1539,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>50</v>
       </c>
       <c r="E66" s="6"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>51</v>
       </c>
@@ -1403,15 +1553,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C70" t="s">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C70" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D70" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
         <v>67</v>
       </c>
@@ -1419,25 +1569,28 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C73" t="s">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C73" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D73" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="H73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
         <v>75</v>
       </c>
@@ -1445,27 +1598,104 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C78" t="s">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C78" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D83" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C87" t="s">
-        <v>80</v>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C91" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="D92" t="s">
+        <v>91</v>
+      </c>
+      <c r="M92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="M93" t="s">
+        <v>94</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C95" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>85</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="L95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="E100" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D102" t="s">
+        <v>98</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,431 +14,414 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>小红帽剧场</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>debuff赋予玩家“角色“</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小红帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>两个dps</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一个h</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>猎人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其余玩家中随机一个</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每隔一段时间释放全屏AOE”怒吼”，对小红帽附加恐惧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接近小红帽会将其吃掉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>aoe击杀狼后可解救小红帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>荆棘塔与小屋核爆点名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>故意让小红帽被吃掉来躲掉某个机制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>之后再把小红帽救出来</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最后连线小红帽对其方向释放直线冲锋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>塔判定完后生成八方向的荆棘，带止步、流血效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>倒计时结束后对最近的一名玩家90°扇形AOE，90%血伤害，解除大灰狼debuff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>狼x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小红帽x1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>猎人x1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>吃掉小红帽后：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>带血的狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月圆之时后：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>狼人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>猎人击杀吃掉小红帽的狼后复活</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>被“吃掉“后玩家死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>同左</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>月圆之时前狼吃掉小红帽，场上剩两只狼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>之后猎人杀掉两只狼，救活小红帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>远线、近线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>远线拉断突进，近线靠近怒吼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>满月之时：boss全屏大伤害AOE，狼与小红帽debuff全部转为狼人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新月之时：同时再召唤两只狼（不可视），释放直线突进（可以阻挡保护小红帽</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>狼突进不受荆棘阻挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玩家 分散到四个区域来挡突进（接线）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火流星：范围覆盖到荆棘时会烧掉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>孤独感进度条：靠近小红帽降低，远离增加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">剧场 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- マッチ売りの少女</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>デバフ：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>マッチ売りの少女</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>マッチ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>少女役のプレイヤーに近づくと灯る</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>近线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每点燃一根火柴触发一些机制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>温暖值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>随时间减少</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>到0死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>点燃火柴时恢复一定值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1个H</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>原作剧情</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>温暖值上限100，每3s减少10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>初始20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>原作</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>暖和的大火炉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴2</t>
   </si>
   <si>
     <t>烤鹅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴3</t>
   </si>
   <si>
     <t>圣诞树</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>画片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>流星</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴4</t>
   </si>
   <si>
     <t>把周围全照亮了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奶奶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>擦着了一大把火柴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>冻死</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6s内点燃第一根</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>温暖值回复100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴1：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴2：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>debuff倒计时结束不触发则团灭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>‘+30s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4个玩家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>烤鹅的幻影，连线4人并向其移动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>触碰到小女孩则回复10温暖值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最多共回复40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>’+12s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴3：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15s dot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>触发时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>全屏aoe+易伤</t>
   </si>
   <si>
     <t>火柴玩家发出的视线，小女孩免疫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>触碰到任何玩家则造成小范围AOE并消失</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>见PPT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>火柴4：（梦幻paradise）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单独触发时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>全屏aoe，无dot，无易伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>温暖值回复100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>梦幻paradise后半点名一个H小女孩debuff，初始温暖值20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>剧场机制未达到条件：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>剧场机制时若达到条件：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>随机5人被点名火柴4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>随机两人被点名火柴4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>回复10温暖值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>共回复20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>‘+6s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小女孩因温暖值不足死亡，团灭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5根火柴一个一个点共回复50温暖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>’+15s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>‘+30s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奶奶的幻影存在且4根同时触发时，全体血量归一，获得hot</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在小女孩旁边出现奶奶的幻影（幻影无实际机制，持续到机制结束或小女孩死亡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>没有人会看向小女孩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -466,43 +449,39 @@
       </rPr>
       <t>触发机制</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>撑过30s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>活20s才能处理机制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗时间6s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗大约15s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧场 - マッチ売りの少女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,8 +538,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,6 +579,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -603,22 +597,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -1238,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1252,7 +1248,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
@@ -1411,8 +1407,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>37</v>
+      <c r="A50" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1421,285 +1417,323 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" t="s">
         <v>52</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>53</v>
-      </c>
-      <c r="L53" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
         <v>44</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>45</v>
       </c>
-      <c r="F54" t="s">
-        <v>46</v>
-      </c>
       <c r="K54" t="s">
+        <v>54</v>
+      </c>
+      <c r="L54" t="s">
         <v>55</v>
-      </c>
-      <c r="L54" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55" t="s">
+        <v>56</v>
+      </c>
+      <c r="L55" t="s">
         <v>57</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>58</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>59</v>
-      </c>
-      <c r="N55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="K56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" t="s">
         <v>61</v>
-      </c>
-      <c r="L56" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="L57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" t="s">
         <v>79</v>
-      </c>
-      <c r="E60" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
-        <v>81</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="12"/>
+      <c r="C70" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="12"/>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>50</v>
-      </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C70" s="8" t="s">
+      <c r="G71" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="12"/>
+      <c r="C73" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C73" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="12"/>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="12"/>
+      <c r="D75" t="s">
         <v>73</v>
       </c>
-      <c r="H73" s="2" t="s">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="12"/>
+      <c r="D76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C78" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G79" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A87" s="12"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A88" s="12"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A89" s="12"/>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A90" s="12"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A91" s="12"/>
+      <c r="C91" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A92" s="12"/>
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+      <c r="M92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A93" s="12"/>
+      <c r="M93" t="s">
+        <v>93</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A94" s="12"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A95" s="12"/>
+      <c r="C95" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C78" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G79" t="s">
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" t="s">
+        <v>85</v>
+      </c>
+      <c r="L95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A96" s="12"/>
+      <c r="E96" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A97" s="12"/>
+      <c r="E97" t="s">
+        <v>92</v>
+      </c>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A98" s="12"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A99" s="12"/>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A100" s="12"/>
+      <c r="E100" t="s">
+        <v>86</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H100" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C89" t="s">
-        <v>88</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C91" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L91" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="D92" t="s">
-        <v>91</v>
-      </c>
-      <c r="M92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="M93" t="s">
-        <v>94</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C95" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" t="s">
-        <v>85</v>
-      </c>
-      <c r="E95" t="s">
-        <v>86</v>
-      </c>
-      <c r="L95" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A101" s="12"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A102" s="12"/>
+      <c r="D102" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="E96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E97" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="E100" t="s">
-        <v>87</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D102" t="s">
+      <c r="G102" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/草稿/人偶剧场re 草稿.xlsx
+++ b/草稿/人偶剧场re 草稿.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t>小红帽剧场</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,17 +321,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15s dot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>触发时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全屏aoe+易伤</t>
-  </si>
-  <si>
     <t>火柴玩家发出的视线，小女孩免疫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -409,10 +402,6 @@
   </si>
   <si>
     <t>‘+30s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶奶的幻影存在且4根同时触发时，全体血量归一，获得hot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -471,12 +460,40 @@
     <t>剧场 - マッチ売りの少女</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>奶奶的幻影存在且4根同时触发时，造成所有玩家血量上限-1的固定伤害（可被盾减伤，不会被百分比减伤），获得hot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9s dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏aoe+3s易伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火柴2和3复合以尽快结束机制保证温暖值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞树幻影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后有流星划过，划过时判定温暖值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随后剧场闭幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +564,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -601,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -615,6 +640,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 着色 6" xfId="1" builtinId="51"/>
@@ -1232,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R102"/>
+  <dimension ref="A3:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1408,7 +1434,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1508,18 +1534,18 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="E61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -1535,13 +1561,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>49</v>
       </c>
       <c r="E66" s="5"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>50</v>
       </c>
@@ -1549,16 +1575,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="12"/>
       <c r="C70" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="12"/>
       <c r="D71" t="s">
         <v>66</v>
@@ -1567,10 +1593,10 @@
         <v>70</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="12"/>
       <c r="C73" s="7" t="s">
         <v>68</v>
@@ -1579,25 +1605,25 @@
         <v>72</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="12"/>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="12"/>
       <c r="D75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="12"/>
       <c r="D76" t="s">
         <v>74</v>
@@ -1606,130 +1632,150 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="I77" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C78" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G79" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A87" s="12"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D86" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="12"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="12"/>
-      <c r="C89" t="s">
-        <v>87</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="12"/>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="12"/>
-      <c r="C91" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="L91" s="9" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="12"/>
-      <c r="D92" t="s">
-        <v>90</v>
-      </c>
-      <c r="M92" t="s">
-        <v>91</v>
+      <c r="C92" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="12"/>
+      <c r="D93" t="s">
+        <v>88</v>
+      </c>
       <c r="M93" t="s">
-        <v>93</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="12"/>
+      <c r="M94" t="s">
+        <v>91</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="12"/>
-      <c r="C95" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" t="s">
-        <v>85</v>
-      </c>
-      <c r="L95" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="12"/>
+      <c r="C96" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96" t="s">
+        <v>82</v>
+      </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>83</v>
+      </c>
+      <c r="L96" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="12"/>
       <c r="E97" t="s">
-        <v>92</v>
-      </c>
-      <c r="F97" s="5"/>
+        <v>98</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="12"/>
+      <c r="E98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="12"/>
-      <c r="D99" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="12"/>
-      <c r="E100" t="s">
-        <v>86</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>105</v>
+      <c r="D100" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="12"/>
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="12"/>
-      <c r="D102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>98</v>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A103" s="12"/>
+      <c r="D103" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
